--- a/medicine/Handicap/Jonathan_Lerman/Jonathan_Lerman.xlsx
+++ b/medicine/Handicap/Jonathan_Lerman/Jonathan_Lerman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonathan Lerman (né en 1987) est un artiste outsider américain né en 1987, à New York, dans le Queens. Il est reconnu comme étant un autiste savant, avec un quotient intellectuel limité, alliant de fortes difficultés de langage et un don précoce pour le graphisme, de préférence des portraits dessinés au fusain[1]. Il réside actuellement à Vestale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonathan Lerman (né en 1987) est un artiste outsider américain né en 1987, à New York, dans le Queens. Il est reconnu comme étant un autiste savant, avec un quotient intellectuel limité, alliant de fortes difficultés de langage et un don précoce pour le graphisme, de préférence des portraits dessinés au fusain. Il réside actuellement à Vestale.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonathan Lerman est devenu progressivement mutique à l'âge de deux ans, et l'année suivante, il a été diagnostiqué autiste. Son QI est censé être de 53.
 La fibre artistique de Lerman est apparue à l'âge de 10 ans. En 1999, il avait sa propre exposition solo à la KS Art gallery à New York.
@@ -545,7 +559,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>George Braziller. Jonathan Lerman: The Drawings of a Boy with Autism (2002)</t>
         </is>
